--- a/237-Alain-RM/Specs/Cinématique pattes - annexe patrick.xlsx
+++ b/237-Alain-RM/Specs/Cinématique pattes - annexe patrick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92-2020\237-Alain-RM\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F7AC6-58C3-458F-BB7E-25528F997688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C9110-800D-4A22-90A0-FEB5004B679A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>crepos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>max</t>
@@ -457,52 +454,52 @@
                   <c:v>-4.7000000000000035E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.6000000000000034E-2</c:v>
+                  <c:v>-4.8000000000000036E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4.4000000000000032E-2</c:v>
+                  <c:v>-4.9000000000000037E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.0000000000000036E-2</c:v>
+                  <c:v>-5.0000000000000037E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.2000000000000035E-2</c:v>
+                  <c:v>-5.1000000000000038E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.0000000000000035E-2</c:v>
+                  <c:v>-5.2000000000000039E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-7.000000000000034E-3</c:v>
+                  <c:v>-5.300000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.9999999999999672E-3</c:v>
+                  <c:v>-5.300000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.8999999999999968E-2</c:v>
+                  <c:v>-4.8000000000000043E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.1999999999999973E-2</c:v>
+                  <c:v>-3.8000000000000041E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.399999999999997E-2</c:v>
+                  <c:v>-2.3000000000000041E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.199999999999997E-2</c:v>
+                  <c:v>-8.0000000000000418E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1.0999999999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5999999999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0999999999999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>5.5999999999999966E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.7999999999999968E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.8999999999999969E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.7999999999999968E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.6999999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>5.5999999999999966E-2</c:v>
@@ -817,88 +814,88 @@
                   <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.24</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.25950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.25850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.255</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.2525</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.2495</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.246</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.24049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.22999999999999998</c:v>
+                  <c:v>-0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.23249999999999998</c:v>
+                  <c:v>-0.23849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.23499999999999999</c:v>
+                  <c:v>-0.24049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.23749999999999999</c:v>
+                  <c:v>-0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.24</c:v>
+                  <c:v>-0.246</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.24249999999999999</c:v>
+                  <c:v>-0.2495</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.245</c:v>
+                  <c:v>-0.2525</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.2475</c:v>
+                  <c:v>-0.255</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.2525</c:v>
+                  <c:v>-0.25850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.255</c:v>
+                  <c:v>-0.25950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.25750000000000001</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.26</c:v>
@@ -1861,88 +1858,88 @@
                   <c:v>110.43614579284437</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.5043920263215</c:v>
+                  <c:v>110.59005108458578</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>97.099141755320503</c:v>
+                  <c:v>110.74757568158687</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>91.1095110236962</c:v>
+                  <c:v>110.53858799453791</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>90.958861510919817</c:v>
+                  <c:v>109.96716156634048</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>90.667299718128888</c:v>
+                  <c:v>109.04231682535128</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90.123091434662342</c:v>
+                  <c:v>107.77741635870468</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>89.190161588171406</c:v>
+                  <c:v>106.18930836864921</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88.179237429454162</c:v>
+                  <c:v>104.2973473636543</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.61036350512434</c:v>
+                  <c:v>102.12241850727452</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>87.589289919594179</c:v>
+                  <c:v>100.15631185981162</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>88.116039108276283</c:v>
+                  <c:v>97.723461399281888</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89.190161588171406</c:v>
+                  <c:v>95.060203978630199</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>90.667299718128888</c:v>
+                  <c:v>92.951042781513252</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>91.911509590947546</c:v>
+                  <c:v>92.197152008599645</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.611736476394356</c:v>
+                  <c:v>92.289541331827664</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.981451452905191</c:v>
+                  <c:v>93.1894697545913</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>93.171220891044769</c:v>
+                  <c:v>94.821231299946831</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94.48486026809833</c:v>
+                  <c:v>96.944522741540652</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>95.824472680862868</c:v>
+                  <c:v>99.085648295138853</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>97.190958561191152</c:v>
+                  <c:v>100.69482083608737</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>98.585319658992177</c:v>
+                  <c:v>102.48047861439935</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>100.00867060003272</c:v>
+                  <c:v>104.65196410385867</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>101.46225241793164</c:v>
+                  <c:v>106.54041485281567</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>102.94744847804209</c:v>
+                  <c:v>108.12472699683116</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>104.46580331942988</c:v>
+                  <c:v>109.38534987807397</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>106.01904508366444</c:v>
+                  <c:v>110.3052746588008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>107.60911238822304</c:v>
+                  <c:v>110.87102679614333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>109.2381867559894</c:v>
+                  <c:v>111.07353316567237</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>110.90873205679678</c:v>
@@ -2263,88 +2260,88 @@
                   <c:v>46.101245101119119</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.347785095680507</c:v>
+                  <c:v>46.281788963948372</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.409212044063445</c:v>
+                  <c:v>46.460059135968713</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58.351658927406952</c:v>
+                  <c:v>46.847167735673416</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.133174922674783</c:v>
+                  <c:v>47.443085311707037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57.689165996075388</c:v>
+                  <c:v>48.245720022238807</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>56.773365248184994</c:v>
+                  <c:v>49.251275726083797</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>54.833806831799478</c:v>
+                  <c:v>50.45475111623827</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.66913061460194</c:v>
+                  <c:v>51.850519601303695</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.924359620398292</c:v>
+                  <c:v>53.432932254093934</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.888372134975675</c:v>
+                  <c:v>54.619426333337714</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.601273842617076</c:v>
+                  <c:v>54.624791604215524</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.10219294563074</c:v>
+                  <c:v>53.242334121089087</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.791935892702348</c:v>
+                  <c:v>49.963998409878876</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27.846841636188664</c:v>
+                  <c:v>45.879013416745281</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.355033220358838</c:v>
+                  <c:v>40.153791961286011</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.604581284969836</c:v>
+                  <c:v>35.266029444731636</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25.228247459614344</c:v>
+                  <c:v>30.108861036827101</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.083973993461441</c:v>
+                  <c:v>26.307486156101096</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24.916039124671173</c:v>
+                  <c:v>24.027755258969442</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24.724260458599371</c:v>
+                  <c:v>23.427002340460646</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>24.508400268959001</c:v>
+                  <c:v>23.037643157375356</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24.268159617817822</c:v>
+                  <c:v>22.480078685633231</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.003171527687932</c:v>
+                  <c:v>22.013597602152398</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23.712992995086687</c:v>
+                  <c:v>21.65364308841097</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>23.397095581335456</c:v>
+                  <c:v>21.4140959620152</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>23.054854245864099</c:v>
+                  <c:v>21.306906504704124</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>22.685533993659853</c:v>
+                  <c:v>21.341698259630586</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>22.288273782796878</c:v>
+                  <c:v>21.525413122389764</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>21.86206696720415</c:v>
@@ -3318,88 +3315,88 @@
                   <c:v>24.415301477518017</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.970016465281141</c:v>
+                  <c:v>24.821525168883838</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.108227099142752</c:v>
+                  <c:v>25.222633055929602</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.978732586665636</c:v>
+                  <c:v>26.093627405265188</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.487143576018262</c:v>
+                  <c:v>27.434441951340837</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.488123491169624</c:v>
+                  <c:v>29.240370050037313</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>48.427571808416232</c:v>
+                  <c:v>31.502870383688542</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.063565371548826</c:v>
+                  <c:v>34.210690011536109</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.943043882854361</c:v>
+                  <c:v>37.351169102933312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.517309145896157</c:v>
+                  <c:v>40.911597571711354</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.436337303695272</c:v>
+                  <c:v>43.581209250009856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.7903661458884201</c:v>
+                  <c:v>43.593281109484927</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.33256587233083401</c:v>
+                  <c:v>40.482751772450442</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-10.030644241419717</c:v>
+                  <c:v>33.106496422227465</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-16.657106318575508</c:v>
+                  <c:v>23.915280187676881</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-20.013675254192613</c:v>
+                  <c:v>11.033531912893524</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-21.702192108817869</c:v>
+                  <c:v>3.6066250646181075E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-22.548943215867727</c:v>
+                  <c:v>-11.567562667139024</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-22.873558514711757</c:v>
+                  <c:v>-20.120656148772532</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-23.251411969489862</c:v>
+                  <c:v>-25.250050667318753</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-23.682913968151418</c:v>
+                  <c:v>-26.601744733963546</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-24.16859939484225</c:v>
+                  <c:v>-27.477802895905448</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-24.709140859909901</c:v>
+                  <c:v>-28.732322957325231</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-25.30536406270215</c:v>
+                  <c:v>-29.781905395157104</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-25.958265761054957</c:v>
+                  <c:v>-30.591803051075317</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-26.669034941995221</c:v>
+                  <c:v>-31.130784085465802</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-27.439077946805774</c:v>
+                  <c:v>-31.371960364415724</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-28.27004851426533</c:v>
+                  <c:v>-31.29367891583118</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-29.16388398870702</c:v>
+                  <c:v>-30.880320474623026</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-30.12284932379066</c:v>
@@ -3720,88 +3717,88 @@
                   <c:v>5.9313280338998418</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-9.665117940776625</c:v>
+                  <c:v>6.2776149403180135</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-24.076931050528863</c:v>
+                  <c:v>6.6320452835704558</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-37.553600196683547</c:v>
+                  <c:v>6.1618229877102948</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-37.892561600430405</c:v>
+                  <c:v>4.8761135242660849</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-38.548575634209996</c:v>
+                  <c:v>2.7952128570403829</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-39.773044272009727</c:v>
+                  <c:v>-5.0813192914453964E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-41.872136426614325</c:v>
+                  <c:v>-3.6240561705392764</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-44.146715783728133</c:v>
+                  <c:v>-7.8809684317778279</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-45.426682113470228</c:v>
+                  <c:v>-12.77455835863233</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-45.47409768091309</c:v>
+                  <c:v>-17.198298315423841</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-44.288912006378361</c:v>
+                  <c:v>-22.672211851615746</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-41.872136426614325</c:v>
+                  <c:v>-28.66454104808205</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-38.548575634209996</c:v>
+                  <c:v>-33.410153741595181</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-35.749103420368016</c:v>
+                  <c:v>-35.106407980650793</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-34.17359292811269</c:v>
+                  <c:v>-34.89853200338775</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-33.341734230963318</c:v>
+                  <c:v>-32.873693052169571</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-32.914752995149264</c:v>
+                  <c:v>-29.202229575119624</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-29.95906439677875</c:v>
+                  <c:v>-24.424823831533526</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-26.94493646805854</c:v>
+                  <c:v>-19.607291335937575</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-23.870343237319901</c:v>
+                  <c:v>-15.986653118803403</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-20.733030767267596</c:v>
+                  <c:v>-11.968923117601467</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-17.530491149926384</c:v>
+                  <c:v>-7.0830807663179769</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-14.25993205965381</c:v>
+                  <c:v>-2.8340665811647305</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-10.918240924405289</c:v>
+                  <c:v>0.73063574287010979</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-7.5019425312827623</c:v>
+                  <c:v>3.5670372256664322</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-4.0071485617550096</c:v>
+                  <c:v>5.6368679823018013</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.42949712649815552</c:v>
+                  <c:v>6.909810291322489</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2359202009761638</c:v>
+                  <c:v>7.3654496227628456</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>6.99464712779276</c:v>
@@ -4370,91 +4367,91 @@
                   <c:v>4.1130573877903487</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>95.547149877631227</c:v>
+                  <c:v>4.0622369136582037</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>91.382106338616111</c:v>
+                  <c:v>4.011078870457645</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>88.705054875228839</c:v>
+                  <c:v>8.7099434933558584</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9158901064737393</c:v>
+                  <c:v>13.408145460756487</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9902008484863813</c:v>
+                  <c:v>18.059280986964765</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.605516827533918</c:v>
+                  <c:v>22.625003336512286</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43.640064368674061</c:v>
+                  <c:v>27.078196278475666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71.205214886944646</c:v>
+                  <c:v>31.404790913972036</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>84.25734736958205</c:v>
+                  <c:v>35.604284687780421</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.809718422008842</c:v>
+                  <c:v>26.696116782985015</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>96.459711578068521</c:v>
+                  <c:v>0.12071859475071278</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>101.22932018219254</c:v>
+                  <c:v>31.105293370344853</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>96.980783690888828</c:v>
+                  <c:v>73.762553502229764</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66.264620771557915</c:v>
+                  <c:v>91.912162345505834</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>33.565689356171049</c:v>
+                  <c:v>128.81748274783357</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.885168546252558</c:v>
+                  <c:v>109.97465662247343</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.4675110704985812</c:v>
+                  <c:v>116.03628917785204</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.2461529884403006</c:v>
+                  <c:v>85.53093481633509</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.7785345477810495</c:v>
+                  <c:v>51.293945185462206</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.3150199866155603</c:v>
+                  <c:v>13.51694066644793</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.8568542669083214</c:v>
+                  <c:v>8.7605816194190211</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4054146506765122</c:v>
+                  <c:v>12.545200614197825</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.9622320279224894</c:v>
+                  <c:v>10.49582437831873</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.5290169835280665</c:v>
+                  <c:v>8.0989765591821339</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.1076918094026453</c:v>
+                  <c:v>5.3898103439048484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.700430048105531</c:v>
+                  <c:v>2.4117627894992211</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.3097056745955555</c:v>
+                  <c:v>0.78281448584544222</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.9383547444169054</c:v>
+                  <c:v>4.1335844120815324</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.5896533508364001</c:v>
+                  <c:v>7.5747115083236594</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>7.545375798740217</c:v>
@@ -4768,91 +4765,91 @@
                   <c:v>3.381704830724992</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>155.96445974676467</c:v>
+                  <c:v>3.4628690641817172</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>144.11813109752239</c:v>
+                  <c:v>3.5443034325244227</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>134.76669146154683</c:v>
+                  <c:v>4.7022229586016095</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3896140374685757</c:v>
+                  <c:v>12.857094634442099</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.5601403377959144</c:v>
+                  <c:v>20.80900667225702</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12.244686377997311</c:v>
+                  <c:v>28.460260499548369</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.990921546045982</c:v>
+                  <c:v>35.732429776248225</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.74579357113808</c:v>
+                  <c:v>42.569122612385513</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.799663297420949</c:v>
+                  <c:v>48.935899268545022</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.47415567442861573</c:v>
+                  <c:v>44.237399567915112</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.851856745347291</c:v>
+                  <c:v>54.739135361919047</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24.167755797640353</c:v>
+                  <c:v>59.923291964663044</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>33.235607924043293</c:v>
+                  <c:v>47.456126935131309</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27.994722138419803</c:v>
+                  <c:v>16.962542390556123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15.755104922553258</c:v>
+                  <c:v>2.0787597726304341</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.3185869714937155</c:v>
+                  <c:v>20.248389512181788</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.2698123581405412</c:v>
+                  <c:v>36.714634770499472</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.556885983705143</c:v>
+                  <c:v>47.774057435860975</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>30.141279287202103</c:v>
+                  <c:v>48.175324955959518</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30.74593230738639</c:v>
+                  <c:v>36.206382171341716</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>31.373124700523043</c:v>
+                  <c:v>40.177300012019366</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>32.025396173412126</c:v>
+                  <c:v>48.858423512834896</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>32.705590902725739</c:v>
+                  <c:v>42.490141851532464</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>33.416911352485208</c:v>
+                  <c:v>35.647023240348403</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>34.16298393122527</c:v>
+                  <c:v>28.364014827963224</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>34.947939695277526</c:v>
+                  <c:v>20.698307566353691</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35.77651435256854</c:v>
+                  <c:v>12.729423090206877</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>36.654173274743194</c:v>
+                  <c:v>4.5563933144035662</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.587269268165961</c:v>
+                  <c:v>3.7080249497008566</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>3.6260184422236819</c:v>
@@ -7542,16 +7539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>523873</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7845,9 +7842,9 @@
   <dimension ref="A1:W136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4815" activePane="bottomLeft"/>
+      <pane ySplit="4815" topLeftCell="A53" activePane="bottomLeft"/>
       <selection activeCell="V16" sqref="V16"/>
-      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8038,10 +8035,10 @@
         <v>26</v>
       </c>
       <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
         <v>33</v>
-      </c>
-      <c r="V15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -8121,7 +8118,7 @@
         <v>375</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -8133,7 +8130,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C63" si="0">-$B$10</f>
+        <f t="shared" ref="C17:C70" si="0">-$B$10</f>
         <v>-0.01</v>
       </c>
       <c r="D17" s="1">
@@ -11613,7 +11610,7 @@
         <v>-0.01</v>
       </c>
       <c r="D61" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="13"/>
@@ -11621,7 +11618,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="14"/>
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -11632,31 +11629,31 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="3"/>
-        <v>0.20400000000000001</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
-        <v>0.20890428430264424</v>
+        <v>0.21868013169924702</v>
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>103.5043920263215</v>
+        <v>110.59005108458578</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
-        <v>37.908223076833949</v>
+        <v>34.406624984248261</v>
       </c>
       <c r="N61">
         <f t="shared" si="7"/>
-        <v>-12.439562018846557</v>
+        <v>-11.875163979700115</v>
       </c>
       <c r="O61">
         <f t="shared" si="8"/>
-        <v>50.347785095680507</v>
+        <v>46.281788963948372</v>
       </c>
       <c r="Q61">
         <f t="shared" si="9"/>
@@ -11664,19 +11661,19 @@
       </c>
       <c r="R61">
         <f t="shared" si="10"/>
-        <v>33.970016465281141</v>
+        <v>24.821525168883838</v>
       </c>
       <c r="S61">
         <f t="shared" si="11"/>
-        <v>-9.665117940776625</v>
+        <v>6.2776149403180135</v>
       </c>
       <c r="U61">
         <f t="shared" si="16"/>
-        <v>95.547149877631227</v>
+        <v>4.0622369136582037</v>
       </c>
       <c r="V61">
         <f t="shared" si="16"/>
-        <v>155.96445974676467</v>
+        <v>3.4628690641817172</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -11692,7 +11689,7 @@
         <v>-0.01</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="13"/>
@@ -11700,7 +11697,7 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="14"/>
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -11711,31 +11708,31 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="3"/>
-        <v>0.19400000000000001</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
-        <v>0.19937903600930568</v>
+        <v>0.21888809926535524</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
-        <v>97.099141755320503</v>
+        <v>110.74757568158687</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
-        <v>41.069963140700033</v>
+        <v>34.328738069336204</v>
       </c>
       <c r="N62">
         <f t="shared" si="7"/>
-        <v>-13.33924890336341</v>
+        <v>-12.131321066632509</v>
       </c>
       <c r="O62">
         <f t="shared" si="8"/>
-        <v>54.409212044063445</v>
+        <v>46.460059135968713</v>
       </c>
       <c r="Q62">
         <f t="shared" si="9"/>
@@ -11743,19 +11740,19 @@
       </c>
       <c r="R62">
         <f t="shared" si="10"/>
-        <v>43.108227099142752</v>
+        <v>25.222633055929602</v>
       </c>
       <c r="S62">
         <f t="shared" si="11"/>
-        <v>-24.076931050528863</v>
+        <v>6.6320452835704558</v>
       </c>
       <c r="U62">
         <f t="shared" si="16"/>
-        <v>91.382106338616111</v>
+        <v>4.011078870457645</v>
       </c>
       <c r="V62">
         <f t="shared" si="16"/>
-        <v>144.11813109752239</v>
+        <v>3.5443034325244227</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -11771,7 +11768,7 @@
         <v>-0.01</v>
       </c>
       <c r="D63" s="1">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="13"/>
@@ -11779,7 +11776,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.25950000000000001</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -11790,31 +11787,31 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.21350000000000002</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
-        <v>0.18990787240133042</v>
+        <v>0.21861209939067877</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>91.1095110236962</v>
+        <v>110.53858799453791</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
-        <v>44.022719259745287</v>
+        <v>34.432070181400341</v>
       </c>
       <c r="N63">
         <f t="shared" si="7"/>
-        <v>-14.328939667661665</v>
+        <v>-12.415097554273075</v>
       </c>
       <c r="O63">
         <f t="shared" si="8"/>
-        <v>58.351658927406952</v>
+        <v>46.847167735673416</v>
       </c>
       <c r="Q63">
         <f t="shared" si="9"/>
@@ -11822,19 +11819,19 @@
       </c>
       <c r="R63">
         <f t="shared" si="10"/>
-        <v>51.978732586665636</v>
+        <v>26.093627405265188</v>
       </c>
       <c r="S63">
         <f t="shared" si="11"/>
-        <v>-37.553600196683547</v>
+        <v>6.1618229877102948</v>
       </c>
       <c r="U63">
         <f t="shared" si="16"/>
-        <v>88.705054875228839</v>
+        <v>8.7099434933558584</v>
       </c>
       <c r="V63">
         <f t="shared" si="16"/>
-        <v>134.76669146154683</v>
+        <v>4.7022229586016095</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -11846,18 +11843,19 @@
         <v>4.7999999999999989</v>
       </c>
       <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.01</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="13"/>
-        <v>-4.6000000000000034E-2</v>
+        <v>-4.8000000000000036E-2</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.25850000000000001</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -11868,31 +11866,31 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.25850000000000001</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>0.18966285877841241</v>
+        <v>0.21785373533634902</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>90.958861510919817</v>
+        <v>109.96716156634048</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
-        <v>44.096931454748294</v>
+        <v>34.714591850635536</v>
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>-14.036243467926489</v>
+        <v>-12.728493461071505</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
-        <v>58.133174922674783</v>
+        <v>47.443085311707037</v>
       </c>
       <c r="Q64">
         <f t="shared" si="9"/>
@@ -11900,19 +11898,19 @@
       </c>
       <c r="R64">
         <f t="shared" si="10"/>
-        <v>51.487143576018262</v>
+        <v>27.434441951340837</v>
       </c>
       <c r="S64">
         <f t="shared" si="11"/>
-        <v>-37.892561600430405</v>
+        <v>4.8761135242660849</v>
       </c>
       <c r="U64">
         <f t="shared" si="16"/>
-        <v>4.9158901064737393</v>
+        <v>13.408145460756487</v>
       </c>
       <c r="V64">
         <f t="shared" si="16"/>
-        <v>3.3896140374685757</v>
+        <v>12.857094634442099</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -11924,18 +11922,19 @@
         <v>4.8999999999999986</v>
       </c>
       <c r="C65" s="1">
-        <v>0.02</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="13"/>
-        <v>-4.4000000000000032E-2</v>
+        <v>-4.9000000000000037E-2</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -11946,31 +11945,31 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.21100000000000002</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
-        <v>0.18918773744616746</v>
+        <v>0.2166148656025251</v>
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>90.667299718128888</v>
+        <v>109.04231682535128</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
-        <v>44.240550944388858</v>
+        <v>35.171801163988427</v>
       </c>
       <c r="N65">
         <f t="shared" si="7"/>
-        <v>-13.448615051686527</v>
+        <v>-13.073918858250382</v>
       </c>
       <c r="O65">
         <f t="shared" si="8"/>
-        <v>57.689165996075388</v>
+        <v>48.245720022238807</v>
       </c>
       <c r="Q65">
         <f t="shared" si="9"/>
@@ -11978,19 +11977,19 @@
       </c>
       <c r="R65">
         <f t="shared" si="10"/>
-        <v>50.488123491169624</v>
+        <v>29.240370050037313</v>
       </c>
       <c r="S65">
         <f t="shared" si="11"/>
-        <v>-38.548575634209996</v>
+        <v>2.7952128570403829</v>
       </c>
       <c r="U65">
         <f t="shared" si="16"/>
-        <v>9.9902008484863813</v>
+        <v>18.059280986964765</v>
       </c>
       <c r="V65">
         <f t="shared" si="16"/>
-        <v>6.5601403377959144</v>
+        <v>20.80900667225702</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -12002,18 +12001,19 @@
         <v>4.9999999999999982</v>
       </c>
       <c r="C66" s="1">
-        <v>0.04</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="13"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-5.0000000000000037E-2</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.255</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -12024,31 +12024,31 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.255</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.20900000000000002</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
-        <v>0.18829763673503713</v>
+        <v>0.21489765005695155</v>
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>90.123091434662342</v>
+        <v>107.77741635870468</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
-        <v>44.508591520292583</v>
+        <v>35.797023545380327</v>
       </c>
       <c r="N66">
         <f t="shared" si="7"/>
-        <v>-12.264773727892413</v>
+        <v>-13.454252180703469</v>
       </c>
       <c r="O66">
         <f t="shared" si="8"/>
-        <v>56.773365248184994</v>
+        <v>49.251275726083797</v>
       </c>
       <c r="Q66">
         <f t="shared" si="9"/>
@@ -12056,19 +12056,19 @@
       </c>
       <c r="R66">
         <f t="shared" si="10"/>
-        <v>48.427571808416232</v>
+        <v>31.502870383688542</v>
       </c>
       <c r="S66">
         <f t="shared" si="11"/>
-        <v>-39.773044272009727</v>
+        <v>-5.0813192914453964E-2</v>
       </c>
       <c r="U66">
         <f t="shared" si="16"/>
-        <v>20.605516827533918</v>
+        <v>22.625003336512286</v>
       </c>
       <c r="V66">
         <f t="shared" si="16"/>
-        <v>12.244686377997311</v>
+        <v>28.460260499548369</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -12080,18 +12080,19 @@
         <v>5.0999999999999979</v>
       </c>
       <c r="C67" s="1">
-        <v>0.08</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="13"/>
-        <v>-3.2000000000000035E-2</v>
+        <v>-5.1000000000000038E-2</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.2525</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -12102,31 +12103,31 @@
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.2525</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.20650000000000002</v>
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
-        <v>0.18676188047886003</v>
+        <v>0.21270460737840169</v>
       </c>
       <c r="L67">
         <f t="shared" si="5"/>
-        <v>89.190161588171406</v>
+        <v>106.18930836864921</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
-        <v>44.967999888715099</v>
+        <v>36.58183610987745</v>
       </c>
       <c r="N67">
         <f t="shared" si="7"/>
-        <v>-9.8658069430843796</v>
+        <v>-13.872915006360818</v>
       </c>
       <c r="O67">
         <f t="shared" si="8"/>
-        <v>54.833806831799478</v>
+        <v>50.45475111623827</v>
       </c>
       <c r="Q67">
         <f t="shared" si="9"/>
@@ -12134,19 +12135,19 @@
       </c>
       <c r="R67">
         <f t="shared" si="10"/>
-        <v>44.063565371548826</v>
+        <v>34.210690011536109</v>
       </c>
       <c r="S67">
         <f t="shared" si="11"/>
-        <v>-41.872136426614325</v>
+        <v>-3.6240561705392764</v>
       </c>
       <c r="U67">
         <f t="shared" si="16"/>
-        <v>43.640064368674061</v>
+        <v>27.078196278475666</v>
       </c>
       <c r="V67">
         <f t="shared" si="16"/>
-        <v>20.990921546045982</v>
+        <v>35.732429776248225</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -12158,18 +12159,19 @@
         <v>5.1999999999999975</v>
       </c>
       <c r="C68" s="1">
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="13"/>
-        <v>-2.0000000000000035E-2</v>
+        <v>-5.2000000000000039E-2</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.2495</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -12180,31 +12182,31 @@
       </c>
       <c r="I68">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.2495</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.20350000000000001</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>0.18508376482014841</v>
+        <v>0.21003868691267333</v>
       </c>
       <c r="L68">
         <f t="shared" si="5"/>
-        <v>88.179237429454162</v>
+        <v>104.2973473636543</v>
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
-        <v>45.465682712910095</v>
+        <v>37.516552476066288</v>
       </c>
       <c r="N68">
         <f t="shared" si="7"/>
-        <v>-6.2034479016918462</v>
+        <v>-14.333967125237406</v>
       </c>
       <c r="O68">
         <f t="shared" si="8"/>
-        <v>51.66913061460194</v>
+        <v>51.850519601303695</v>
       </c>
       <c r="Q68">
         <f t="shared" si="9"/>
@@ -12212,19 +12214,19 @@
       </c>
       <c r="R68">
         <f t="shared" si="10"/>
-        <v>36.943043882854361</v>
+        <v>37.351169102933312</v>
       </c>
       <c r="S68">
         <f t="shared" si="11"/>
-        <v>-44.146715783728133</v>
+        <v>-7.8809684317778279</v>
       </c>
       <c r="U68">
         <f t="shared" si="16"/>
-        <v>71.205214886944646</v>
+        <v>31.404790913972036</v>
       </c>
       <c r="V68">
         <f t="shared" si="16"/>
-        <v>22.74579357113808</v>
+        <v>42.569122612385513</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -12236,18 +12238,19 @@
         <v>5.2999999999999972</v>
       </c>
       <c r="C69" s="1">
-        <v>0.13</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="13"/>
-        <v>-7.000000000000034E-3</v>
+        <v>-5.300000000000004E-2</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.246</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -12258,31 +12261,31 @@
       </c>
       <c r="I69">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.246</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.2</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>0.1841331040307527</v>
+        <v>0.20690335908341365</v>
       </c>
       <c r="L69">
         <f t="shared" si="5"/>
-        <v>87.61036350512434</v>
+        <v>102.12241850727452</v>
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
-        <v>45.745679545121682</v>
+        <v>38.590705196182824</v>
       </c>
       <c r="N69">
         <f t="shared" si="7"/>
-        <v>-2.1786800752766129</v>
+        <v>-14.842227057911112</v>
       </c>
       <c r="O69">
         <f t="shared" si="8"/>
-        <v>47.924359620398292</v>
+        <v>53.432932254093934</v>
       </c>
       <c r="Q69">
         <f t="shared" si="9"/>
@@ -12290,19 +12293,19 @@
       </c>
       <c r="R69">
         <f t="shared" si="10"/>
-        <v>28.517309145896157</v>
+        <v>40.911597571711354</v>
       </c>
       <c r="S69">
         <f t="shared" si="11"/>
-        <v>-45.426682113470228</v>
+        <v>-12.77455835863233</v>
       </c>
       <c r="U69">
         <f t="shared" si="16"/>
-        <v>84.25734736958205</v>
+        <v>35.604284687780421</v>
       </c>
       <c r="V69">
         <f t="shared" si="16"/>
-        <v>12.799663297420949</v>
+        <v>48.935899268545022</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -12314,18 +12317,18 @@
         <v>5.3999999999999968</v>
       </c>
       <c r="C70" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="13"/>
-        <v>5.9999999999999672E-3</v>
+        <v>-5.300000000000004E-2</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.24299999999999999</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -12336,31 +12339,31 @@
       </c>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>0.18409780009549273</v>
+        <v>0.20400490190189061</v>
       </c>
       <c r="L70">
         <f t="shared" si="5"/>
-        <v>87.589289919594179</v>
+        <v>100.15631185981162</v>
       </c>
       <c r="M70">
         <f t="shared" si="6"/>
-        <v>45.756050974409838</v>
+        <v>39.561368863610667</v>
       </c>
       <c r="N70">
         <f t="shared" si="7"/>
-        <v>1.8676788394341619</v>
+        <v>-15.058057469727043</v>
       </c>
       <c r="O70">
         <f t="shared" si="8"/>
-        <v>43.888372134975675</v>
+        <v>54.619426333337714</v>
       </c>
       <c r="Q70">
         <f t="shared" si="9"/>
@@ -12368,19 +12371,19 @@
       </c>
       <c r="R70">
         <f t="shared" si="10"/>
-        <v>19.436337303695272</v>
+        <v>43.581209250009856</v>
       </c>
       <c r="S70">
         <f t="shared" si="11"/>
-        <v>-45.47409768091309</v>
+        <v>-17.198298315423841</v>
       </c>
       <c r="U70">
         <f t="shared" si="16"/>
-        <v>90.809718422008842</v>
+        <v>26.696116782985015</v>
       </c>
       <c r="V70">
         <f t="shared" si="16"/>
-        <v>0.47415567442861573</v>
+        <v>44.237399567915112</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -12392,18 +12395,18 @@
         <v>5.4999999999999964</v>
       </c>
       <c r="C71" s="1">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="13"/>
-        <v>1.8999999999999968E-2</v>
+        <v>-4.8000000000000043E-2</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.24049999999999999</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -12414,31 +12417,31 @@
       </c>
       <c r="I71">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>0.18497837711473197</v>
+        <v>0.20033534386123686</v>
       </c>
       <c r="L71">
         <f t="shared" si="5"/>
-        <v>88.116039108276283</v>
+        <v>97.723461399281888</v>
       </c>
       <c r="M71">
         <f t="shared" si="6"/>
-        <v>45.496790854986415</v>
+        <v>40.761960983023542</v>
       </c>
       <c r="N71">
         <f t="shared" si="7"/>
-        <v>5.8955170123693366</v>
+        <v>-13.862830621191982</v>
       </c>
       <c r="O71">
         <f t="shared" si="8"/>
-        <v>39.601273842617076</v>
+        <v>54.624791604215524</v>
       </c>
       <c r="Q71">
         <f t="shared" si="9"/>
@@ -12446,19 +12449,19 @@
       </c>
       <c r="R71">
         <f t="shared" si="10"/>
-        <v>9.7903661458884201</v>
+        <v>43.593281109484927</v>
       </c>
       <c r="S71">
         <f t="shared" si="11"/>
-        <v>-44.288912006378361</v>
+        <v>-22.672211851615746</v>
       </c>
       <c r="U71">
         <f t="shared" si="16"/>
-        <v>96.459711578068521</v>
+        <v>0.12071859475071278</v>
       </c>
       <c r="V71">
         <f t="shared" si="16"/>
-        <v>11.851856745347291</v>
+        <v>54.739135361919047</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -12470,18 +12473,18 @@
         <v>5.5999999999999961</v>
       </c>
       <c r="C72" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="13"/>
-        <v>3.1999999999999973E-2</v>
+        <v>-3.8000000000000041E-2</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23849999999999999</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -12492,31 +12495,31 @@
       </c>
       <c r="I72">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1925</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>0.18676188047886003</v>
+        <v>0.19621480576144096</v>
       </c>
       <c r="L72">
         <f t="shared" si="5"/>
-        <v>89.190161588171406</v>
+        <v>95.060203978630199</v>
       </c>
       <c r="M72">
         <f t="shared" si="6"/>
-        <v>44.967999888715099</v>
+        <v>42.075569213951916</v>
       </c>
       <c r="N72">
         <f t="shared" si="7"/>
-        <v>9.86580694308436</v>
+        <v>-11.166764907137171</v>
       </c>
       <c r="O72">
         <f t="shared" si="8"/>
-        <v>35.10219294563074</v>
+        <v>53.242334121089087</v>
       </c>
       <c r="Q72">
         <f t="shared" si="9"/>
@@ -12524,19 +12527,19 @@
       </c>
       <c r="R72">
         <f t="shared" si="10"/>
-        <v>-0.33256587233083401</v>
+        <v>40.482751772450442</v>
       </c>
       <c r="S72">
         <f t="shared" si="11"/>
-        <v>-41.872136426614325</v>
+        <v>-28.66454104808205</v>
       </c>
       <c r="U72">
         <f t="shared" si="16"/>
-        <v>101.22932018219254</v>
+        <v>31.105293370344853</v>
       </c>
       <c r="V72">
         <f t="shared" si="16"/>
-        <v>24.167755797640353</v>
+        <v>59.923291964663044</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -12548,18 +12551,18 @@
         <v>5.6999999999999957</v>
       </c>
       <c r="C73" s="1">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="13"/>
-        <v>4.399999999999997E-2</v>
+        <v>-2.3000000000000041E-2</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -12570,31 +12573,31 @@
       </c>
       <c r="I73">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1915</v>
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
-        <v>0.18918773744616746</v>
+        <v>0.19287625566668387</v>
       </c>
       <c r="L73">
         <f t="shared" si="5"/>
-        <v>90.667299718128888</v>
+        <v>92.951042781513252</v>
       </c>
       <c r="M73">
         <f t="shared" si="6"/>
-        <v>44.240550944388858</v>
+        <v>43.115326121585341</v>
       </c>
       <c r="N73">
         <f t="shared" si="7"/>
-        <v>13.448615051686508</v>
+        <v>-6.8486722882935327</v>
       </c>
       <c r="O73">
         <f t="shared" si="8"/>
-        <v>30.791935892702348</v>
+        <v>49.963998409878876</v>
       </c>
       <c r="Q73">
         <f t="shared" si="9"/>
@@ -12602,19 +12605,19 @@
       </c>
       <c r="R73">
         <f t="shared" si="10"/>
-        <v>-10.030644241419717</v>
+        <v>33.106496422227465</v>
       </c>
       <c r="S73">
         <f t="shared" si="11"/>
-        <v>-38.548575634209996</v>
+        <v>-33.410153741595181</v>
       </c>
       <c r="U73">
         <f t="shared" si="16"/>
-        <v>96.980783690888828</v>
+        <v>73.762553502229764</v>
       </c>
       <c r="V73">
         <f t="shared" si="16"/>
-        <v>33.235607924043293</v>
+        <v>47.456126935131309</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -12626,18 +12629,18 @@
         <v>5.7999999999999954</v>
       </c>
       <c r="C74" s="1">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="13"/>
-        <v>5.199999999999997E-2</v>
+        <v>-8.0000000000000418E-3</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -12648,31 +12651,31 @@
       </c>
       <c r="I74">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1915</v>
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>0.19120669444347391</v>
+        <v>0.1916670289851648</v>
       </c>
       <c r="L74">
         <f t="shared" si="5"/>
-        <v>91.911509590947546</v>
+        <v>92.197152008599645</v>
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
-        <v>43.627594945704047</v>
+        <v>43.486846995035016</v>
       </c>
       <c r="N74">
         <f t="shared" si="7"/>
-        <v>15.780753309515381</v>
+        <v>-2.3921664217102663</v>
       </c>
       <c r="O74">
         <f t="shared" si="8"/>
-        <v>27.846841636188664</v>
+        <v>45.879013416745281</v>
       </c>
       <c r="Q74">
         <f t="shared" si="9"/>
@@ -12680,19 +12683,19 @@
       </c>
       <c r="R74">
         <f t="shared" si="10"/>
-        <v>-16.657106318575508</v>
+        <v>23.915280187676881</v>
       </c>
       <c r="S74">
         <f t="shared" si="11"/>
-        <v>-35.749103420368016</v>
+        <v>-35.106407980650793</v>
       </c>
       <c r="U74">
         <f t="shared" si="16"/>
-        <v>66.264620771557915</v>
+        <v>91.912162345505834</v>
       </c>
       <c r="V74">
         <f t="shared" si="16"/>
-        <v>27.994722138419803</v>
+        <v>16.962542390556123</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -12704,18 +12707,18 @@
         <v>5.899999999999995</v>
       </c>
       <c r="C75" s="1">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="13"/>
-        <v>5.5999999999999966E-2</v>
+        <v>1.0999999999999961E-2</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -12726,31 +12729,31 @@
       </c>
       <c r="I75">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1915</v>
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>0.19233304448274091</v>
+        <v>0.19181566672198597</v>
       </c>
       <c r="L75">
         <f t="shared" si="5"/>
-        <v>92.611736476394356</v>
+        <v>92.289541331827664</v>
       </c>
       <c r="M75">
         <f t="shared" si="6"/>
-        <v>43.282546284505869</v>
+        <v>43.441320787978718</v>
       </c>
       <c r="N75">
         <f t="shared" si="7"/>
-        <v>16.927513064147032</v>
+        <v>3.2875288266927063</v>
       </c>
       <c r="O75">
         <f t="shared" si="8"/>
-        <v>26.355033220358838</v>
+        <v>40.153791961286011</v>
       </c>
       <c r="Q75">
         <f t="shared" si="9"/>
@@ -12758,19 +12761,19 @@
       </c>
       <c r="R75">
         <f t="shared" si="10"/>
-        <v>-20.013675254192613</v>
+        <v>11.033531912893524</v>
       </c>
       <c r="S75">
         <f t="shared" si="11"/>
-        <v>-34.17359292811269</v>
+        <v>-34.89853200338775</v>
       </c>
       <c r="U75">
         <f t="shared" si="16"/>
-        <v>33.565689356171049</v>
+        <v>128.81748274783357</v>
       </c>
       <c r="V75">
         <f t="shared" si="16"/>
-        <v>15.755104922553258</v>
+        <v>2.0787597726304341</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -12782,18 +12785,18 @@
         <v>5.9999999999999947</v>
       </c>
       <c r="C76" s="1">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="13"/>
-        <v>5.7999999999999968E-2</v>
+        <v>2.5999999999999961E-2</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -12804,31 +12807,31 @@
       </c>
       <c r="I76">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1915</v>
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>0.19292485583770691</v>
+        <v>0.19325695330310885</v>
       </c>
       <c r="L76">
         <f t="shared" si="5"/>
-        <v>92.981451452905191</v>
+        <v>93.1894697545913</v>
       </c>
       <c r="M76">
         <f t="shared" si="6"/>
-        <v>43.10033916215626</v>
+        <v>42.997814099238141</v>
       </c>
       <c r="N76">
         <f t="shared" si="7"/>
-        <v>17.495757877186424</v>
+        <v>7.7317846545065052</v>
       </c>
       <c r="O76">
         <f t="shared" si="8"/>
-        <v>25.604581284969836</v>
+        <v>35.266029444731636</v>
       </c>
       <c r="Q76">
         <f t="shared" si="9"/>
@@ -12836,19 +12839,19 @@
       </c>
       <c r="R76">
         <f t="shared" si="10"/>
-        <v>-21.702192108817869</v>
+        <v>3.6066250646181075E-2</v>
       </c>
       <c r="S76">
         <f t="shared" si="11"/>
-        <v>-33.341734230963318</v>
+        <v>-32.873693052169571</v>
       </c>
       <c r="U76">
         <f t="shared" si="16"/>
-        <v>16.885168546252558</v>
+        <v>109.97465662247343</v>
       </c>
       <c r="V76">
         <f t="shared" si="16"/>
-        <v>8.3185869714937155</v>
+        <v>20.248389512181788</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -12860,18 +12863,18 @@
         <v>6.0999999999999943</v>
       </c>
       <c r="C77" s="1">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="13"/>
-        <v>5.8999999999999969E-2</v>
+        <v>4.099999999999996E-2</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="14"/>
-        <v>-0.22999999999999998</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
@@ -12882,31 +12885,31 @@
       </c>
       <c r="I77">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="3"/>
-        <v>0.184</v>
+        <v>0.1915</v>
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
-        <v>0.19322784478433741</v>
+        <v>0.19583985804733417</v>
       </c>
       <c r="L77">
         <f t="shared" si="5"/>
-        <v>93.171220891044769</v>
+        <v>94.821231299946831</v>
       </c>
       <c r="M77">
         <f t="shared" si="6"/>
-        <v>43.006808540210351</v>
+        <v>42.193401320168398</v>
       </c>
       <c r="N77">
         <f t="shared" si="7"/>
-        <v>17.778561080596006</v>
+        <v>12.084540283341298</v>
       </c>
       <c r="O77">
         <f t="shared" si="8"/>
-        <v>25.228247459614344</v>
+        <v>30.108861036827101</v>
       </c>
       <c r="Q77">
         <f t="shared" si="9"/>
@@ -12914,19 +12917,19 @@
       </c>
       <c r="R77">
         <f t="shared" si="10"/>
-        <v>-22.548943215867727</v>
+        <v>-11.567562667139024</v>
       </c>
       <c r="S77">
         <f t="shared" si="11"/>
-        <v>-32.914752995149264</v>
+        <v>-29.202229575119624</v>
       </c>
       <c r="U77">
         <f t="shared" si="16"/>
-        <v>8.4675110704985812</v>
+        <v>116.03628917785204</v>
       </c>
       <c r="V77">
         <f t="shared" si="16"/>
-        <v>4.2698123581405412</v>
+        <v>36.714634770499472</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -12938,19 +12941,18 @@
         <v>6.199999999999994</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78:C85" si="17">-$B$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D78" s="1">
         <v>-0.01</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="13"/>
-        <v>5.7999999999999968E-2</v>
+        <v>5.0999999999999962E-2</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="14"/>
-        <v>-0.23249999999999998</v>
+        <v>-0.23849999999999999</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
@@ -12961,31 +12963,31 @@
       </c>
       <c r="I78">
         <f t="shared" si="2"/>
-        <v>0.23249999999999998</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="3"/>
-        <v>0.1865</v>
+        <v>0.1925</v>
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
-        <v>0.19531064999123832</v>
+        <v>0.19914128150637175</v>
       </c>
       <c r="L78">
         <f t="shared" si="5"/>
-        <v>94.48486026809833</v>
+        <v>96.944522741540652</v>
       </c>
       <c r="M78">
         <f t="shared" si="6"/>
-        <v>42.359247607899874</v>
+        <v>41.146236781504676</v>
       </c>
       <c r="N78">
         <f t="shared" si="7"/>
-        <v>17.275273614438433</v>
+        <v>14.838750625403581</v>
       </c>
       <c r="O78">
         <f t="shared" si="8"/>
-        <v>25.083973993461441</v>
+        <v>26.307486156101096</v>
       </c>
       <c r="Q78">
         <f t="shared" si="9"/>
@@ -12993,19 +12995,19 @@
       </c>
       <c r="R78">
         <f t="shared" si="10"/>
-        <v>-22.873558514711757</v>
+        <v>-20.120656148772532</v>
       </c>
       <c r="S78">
         <f t="shared" si="11"/>
-        <v>-29.95906439677875</v>
+        <v>-24.424823831533526</v>
       </c>
       <c r="U78">
         <f t="shared" si="16"/>
-        <v>3.2461529884403006</v>
+        <v>85.53093481633509</v>
       </c>
       <c r="V78">
         <f t="shared" si="16"/>
-        <v>29.556885983705143</v>
+        <v>47.774057435860975</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -13017,19 +13019,18 @@
         <v>6.2999999999999936</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D79" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="13"/>
-        <v>5.6999999999999967E-2</v>
+        <v>5.5999999999999966E-2</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="14"/>
-        <v>-0.23499999999999999</v>
+        <v>-0.24049999999999999</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
@@ -13040,31 +13041,31 @@
       </c>
       <c r="I79">
         <f t="shared" si="2"/>
-        <v>0.23499999999999999</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="3"/>
-        <v>0.189</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="K79">
         <f t="shared" si="4"/>
-        <v>0.19740820651634522</v>
+        <v>0.20240121047068863</v>
       </c>
       <c r="L79">
         <f t="shared" si="5"/>
-        <v>95.824472680862868</v>
+        <v>99.085648295138853</v>
       </c>
       <c r="M79">
         <f t="shared" si="6"/>
-        <v>41.698683269941867</v>
+        <v>40.089803417129581</v>
       </c>
       <c r="N79">
         <f t="shared" si="7"/>
-        <v>16.782644145270694</v>
+        <v>16.062048158160138</v>
       </c>
       <c r="O79">
         <f t="shared" si="8"/>
-        <v>24.916039124671173</v>
+        <v>24.027755258969442</v>
       </c>
       <c r="Q79">
         <f t="shared" si="9"/>
@@ -13072,19 +13073,19 @@
       </c>
       <c r="R79">
         <f t="shared" si="10"/>
-        <v>-23.251411969489862</v>
+        <v>-25.250050667318753</v>
       </c>
       <c r="S79">
         <f t="shared" si="11"/>
-        <v>-26.94493646805854</v>
+        <v>-19.607291335937575</v>
       </c>
       <c r="U79">
         <f t="shared" si="16"/>
-        <v>3.7785345477810495</v>
+        <v>51.293945185462206</v>
       </c>
       <c r="V79">
         <f t="shared" si="16"/>
-        <v>30.141279287202103</v>
+        <v>48.175324955959518</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -13096,8 +13097,7 @@
         <v>6.3999999999999932</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>-2.5000000000000001E-2</v>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="14"/>
-        <v>-0.23749999999999999</v>
+        <v>-0.24299999999999999</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -13119,31 +13119,31 @@
       </c>
       <c r="I80">
         <f t="shared" si="2"/>
-        <v>0.23749999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="3"/>
-        <v>0.1915</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="K80">
         <f t="shared" si="4"/>
-        <v>0.19952004911787688</v>
+        <v>0.20480478510034866</v>
       </c>
       <c r="L80">
         <f t="shared" si="5"/>
-        <v>97.190958561191152</v>
+        <v>100.69482083608737</v>
       </c>
       <c r="M80">
         <f t="shared" si="6"/>
-        <v>41.024668694454206</v>
+        <v>39.29554278176051</v>
       </c>
       <c r="N80">
         <f t="shared" si="7"/>
-        <v>16.300408235854835</v>
+        <v>15.868540441299865</v>
       </c>
       <c r="O80">
         <f t="shared" si="8"/>
-        <v>24.724260458599371</v>
+        <v>23.427002340460646</v>
       </c>
       <c r="Q80">
         <f t="shared" si="9"/>
@@ -13151,19 +13151,19 @@
       </c>
       <c r="R80">
         <f t="shared" si="10"/>
-        <v>-23.682913968151418</v>
+        <v>-26.601744733963546</v>
       </c>
       <c r="S80">
         <f t="shared" si="11"/>
-        <v>-23.870343237319901</v>
+        <v>-15.986653118803403</v>
       </c>
       <c r="U80">
         <f t="shared" si="16"/>
-        <v>4.3150199866155603</v>
+        <v>13.51694066644793</v>
       </c>
       <c r="V80">
         <f t="shared" si="16"/>
-        <v>30.74593230738639</v>
+        <v>36.206382171341716</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -13175,11 +13175,11 @@
         <v>6.4999999999999929</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C78:C85" si="17">-$B$10</f>
         <v>-0.01</v>
       </c>
       <c r="D81" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="13"/>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="14"/>
-        <v>-0.24</v>
+        <v>-0.246</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -13198,31 +13198,31 @@
       </c>
       <c r="I81">
         <f t="shared" ref="I81:I135" si="19">SQRT(G81*G81+F81*F81)</f>
-        <v>0.24</v>
+        <v>0.246</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ref="J81:J135" si="20">I81-$B$2</f>
-        <v>0.19400000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="K81">
         <f t="shared" ref="K81:K135" si="21">SQRT(E81*E81+J81*J81)</f>
-        <v>0.20164572894063487</v>
+        <v>0.20742468512691539</v>
       </c>
       <c r="L81">
         <f t="shared" ref="L81:L135" si="22">ACOS(($B$3*$B$3+$B$4*$B$4-K81*K81)/(2*$B$4*$B$3))*180/PI()</f>
-        <v>98.585319658992177</v>
+        <v>102.48047861439935</v>
       </c>
       <c r="M81">
         <f t="shared" ref="M81:M135" si="23">ACOS((K81*K81+$B$3*$B$3-$B$4*$B$4)/(2*K81*$B$3))*180/PI()</f>
-        <v>40.336706865211411</v>
+        <v>38.413894406201536</v>
       </c>
       <c r="N81">
         <f t="shared" ref="N81:N135" si="24">ATAN(E81/J81)*180/PI()</f>
-        <v>15.828306596252412</v>
+        <v>15.376251248826177</v>
       </c>
       <c r="O81">
         <f t="shared" ref="O81:O135" si="25">M81-N81</f>
-        <v>24.508400268959001</v>
+        <v>23.037643157375356</v>
       </c>
       <c r="Q81">
         <f t="shared" ref="Q81:Q135" si="26">(H81-$B$6)*20/45</f>
@@ -13230,19 +13230,19 @@
       </c>
       <c r="R81">
         <f t="shared" ref="R81:R135" si="27">(O81-$B$7)*45/20</f>
-        <v>-24.16859939484225</v>
+        <v>-27.477802895905448</v>
       </c>
       <c r="S81">
         <f t="shared" ref="S81:S135" si="28">(L81-$B$8)*45/20</f>
-        <v>-20.733030767267596</v>
+        <v>-11.968923117601467</v>
       </c>
       <c r="U81">
         <f t="shared" si="16"/>
-        <v>4.8568542669083214</v>
+        <v>8.7605816194190211</v>
       </c>
       <c r="V81">
         <f t="shared" si="16"/>
-        <v>31.373124700523043</v>
+        <v>40.177300012019366</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -13258,7 +13258,7 @@
         <v>-0.01</v>
       </c>
       <c r="D82" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" ref="E82:E135" si="30">E81+C82*$B$13</f>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" ref="F82:F135" si="31">F81+D82*$B$13</f>
-        <v>-0.24249999999999999</v>
+        <v>-0.2495</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -13277,31 +13277,31 @@
       </c>
       <c r="I82">
         <f t="shared" si="19"/>
-        <v>0.24249999999999999</v>
+        <v>0.2495</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="20"/>
-        <v>0.19650000000000001</v>
+        <v>0.20350000000000001</v>
       </c>
       <c r="K82">
         <f t="shared" si="21"/>
-        <v>0.2037848129768261</v>
+        <v>0.21054275100321074</v>
       </c>
       <c r="L82">
         <f t="shared" si="22"/>
-        <v>100.00867060003272</v>
+        <v>104.65196410385867</v>
       </c>
       <c r="M82">
         <f t="shared" si="23"/>
-        <v>39.634244830641194</v>
+        <v>37.341377153770146</v>
       </c>
       <c r="N82">
         <f t="shared" si="24"/>
-        <v>15.366085212823371</v>
+        <v>14.861298468136914</v>
       </c>
       <c r="O82">
         <f t="shared" si="25"/>
-        <v>24.268159617817822</v>
+        <v>22.480078685633231</v>
       </c>
       <c r="Q82">
         <f t="shared" si="26"/>
@@ -13309,19 +13309,19 @@
       </c>
       <c r="R82">
         <f t="shared" si="27"/>
-        <v>-24.709140859909901</v>
+        <v>-28.732322957325231</v>
       </c>
       <c r="S82">
         <f t="shared" si="28"/>
-        <v>-17.530491149926384</v>
+        <v>-7.0830807663179769</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82:V135" si="32">ABS(R82-R81)*10</f>
-        <v>5.4054146506765122</v>
+        <v>12.545200614197825</v>
       </c>
       <c r="V82">
         <f t="shared" si="32"/>
-        <v>32.025396173412126</v>
+        <v>48.858423512834896</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
         <v>-0.01</v>
       </c>
       <c r="D83" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="30"/>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="31"/>
-        <v>-0.245</v>
+        <v>-0.2525</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -13356,31 +13356,31 @@
       </c>
       <c r="I83">
         <f t="shared" si="19"/>
-        <v>0.245</v>
+        <v>0.2525</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="20"/>
-        <v>0.19900000000000001</v>
+        <v>0.20650000000000002</v>
       </c>
       <c r="K83">
         <f t="shared" si="21"/>
-        <v>0.20593688353473741</v>
+        <v>0.21319298768955794</v>
       </c>
       <c r="L83">
         <f t="shared" si="22"/>
-        <v>101.46225241793164</v>
+        <v>106.54041485281567</v>
       </c>
       <c r="M83">
         <f t="shared" si="23"/>
-        <v>38.916666973687697</v>
+        <v>36.408342406670194</v>
       </c>
       <c r="N83">
         <f t="shared" si="24"/>
-        <v>14.913495445999763</v>
+        <v>14.394744804517796</v>
       </c>
       <c r="O83">
         <f t="shared" si="25"/>
-        <v>24.003171527687932</v>
+        <v>22.013597602152398</v>
       </c>
       <c r="Q83">
         <f t="shared" si="26"/>
@@ -13388,19 +13388,19 @@
       </c>
       <c r="R83">
         <f t="shared" si="27"/>
-        <v>-25.30536406270215</v>
+        <v>-29.781905395157104</v>
       </c>
       <c r="S83">
         <f t="shared" si="28"/>
-        <v>-14.25993205965381</v>
+        <v>-2.8340665811647305</v>
       </c>
       <c r="U83">
         <f t="shared" si="32"/>
-        <v>5.9622320279224894</v>
+        <v>10.49582437831873</v>
       </c>
       <c r="V83">
         <f t="shared" si="32"/>
-        <v>32.705590902725739</v>
+        <v>42.490141851532464</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="F84" s="1">
         <f t="shared" si="31"/>
-        <v>-0.2475</v>
+        <v>-0.255</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
@@ -13435,31 +13435,31 @@
       </c>
       <c r="I84">
         <f t="shared" si="19"/>
-        <v>0.2475</v>
+        <v>0.255</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="20"/>
-        <v>0.20150000000000001</v>
+        <v>0.20900000000000002</v>
       </c>
       <c r="K84">
         <f t="shared" si="21"/>
-        <v>0.20810153771656759</v>
+        <v>0.21537177159507231</v>
       </c>
       <c r="L84">
         <f t="shared" si="22"/>
-        <v>102.94744847804209</v>
+        <v>108.12472699683116</v>
       </c>
       <c r="M84">
         <f t="shared" si="23"/>
-        <v>38.183287095152565</v>
+        <v>35.62536430938583</v>
       </c>
       <c r="N84">
         <f t="shared" si="24"/>
-        <v>14.470294100065878</v>
+        <v>13.97172122097486</v>
       </c>
       <c r="O84">
         <f t="shared" si="25"/>
-        <v>23.712992995086687</v>
+        <v>21.65364308841097</v>
       </c>
       <c r="Q84">
         <f t="shared" si="26"/>
@@ -13467,19 +13467,19 @@
       </c>
       <c r="R84">
         <f t="shared" si="27"/>
-        <v>-25.958265761054957</v>
+        <v>-30.591803051075317</v>
       </c>
       <c r="S84">
         <f t="shared" si="28"/>
-        <v>-10.918240924405289</v>
+        <v>0.73063574287010979</v>
       </c>
       <c r="U84">
         <f t="shared" si="32"/>
-        <v>6.5290169835280665</v>
+        <v>8.0989765591821339</v>
       </c>
       <c r="V84">
         <f t="shared" si="32"/>
-        <v>33.416911352485208</v>
+        <v>35.647023240348403</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -13495,7 +13495,7 @@
         <v>-0.01</v>
       </c>
       <c r="D85" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="30"/>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="F85" s="1">
         <f t="shared" si="31"/>
-        <v>-0.25</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -13514,31 +13514,31 @@
       </c>
       <c r="I85">
         <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="20"/>
-        <v>0.20400000000000001</v>
+        <v>0.21100000000000002</v>
       </c>
       <c r="K85">
         <f t="shared" si="21"/>
-        <v>0.21027838690650069</v>
+        <v>0.21707602354935474</v>
       </c>
       <c r="L85">
         <f t="shared" si="22"/>
-        <v>104.46580331942988</v>
+        <v>109.38534987807397</v>
       </c>
       <c r="M85">
         <f t="shared" si="23"/>
-        <v>37.433339049261924</v>
+        <v>35.002225151899189</v>
       </c>
       <c r="N85">
         <f t="shared" si="24"/>
-        <v>14.036243467926468</v>
+        <v>13.58812918988399</v>
       </c>
       <c r="O85">
         <f t="shared" si="25"/>
-        <v>23.397095581335456</v>
+        <v>21.4140959620152</v>
       </c>
       <c r="Q85">
         <f t="shared" si="26"/>
@@ -13546,19 +13546,19 @@
       </c>
       <c r="R85">
         <f t="shared" si="27"/>
-        <v>-26.669034941995221</v>
+        <v>-31.130784085465802</v>
       </c>
       <c r="S85">
         <f t="shared" si="28"/>
-        <v>-7.5019425312827623</v>
+        <v>3.5670372256664322</v>
       </c>
       <c r="U85">
         <f t="shared" si="32"/>
-        <v>7.1076918094026453</v>
+        <v>5.3898103439048484</v>
       </c>
       <c r="V85">
         <f t="shared" si="32"/>
-        <v>34.16298393122527</v>
+        <v>28.364014827963224</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -13574,7 +13574,7 @@
         <v>-0.01</v>
       </c>
       <c r="D86" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="30"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="F86" s="1">
         <f t="shared" si="31"/>
-        <v>-0.2525</v>
+        <v>-0.25850000000000001</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -13593,31 +13593,31 @@
       </c>
       <c r="I86">
         <f t="shared" si="19"/>
-        <v>0.2525</v>
+        <v>0.25850000000000001</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="20"/>
-        <v>0.20650000000000002</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="K86">
         <f t="shared" si="21"/>
-        <v>0.21246705626990742</v>
+        <v>0.21830311495716226</v>
       </c>
       <c r="L86">
         <f t="shared" si="22"/>
-        <v>106.01904508366444</v>
+        <v>110.3052746588008</v>
       </c>
       <c r="M86">
         <f t="shared" si="23"/>
-        <v>36.665965599470965</v>
+        <v>34.547426419891316</v>
       </c>
       <c r="N86">
         <f t="shared" si="24"/>
-        <v>13.611111353606868</v>
+        <v>13.240519915187194</v>
       </c>
       <c r="O86">
         <f t="shared" si="25"/>
-        <v>23.054854245864099</v>
+        <v>21.306906504704124</v>
       </c>
       <c r="Q86">
         <f t="shared" si="26"/>
@@ -13625,19 +13625,19 @@
       </c>
       <c r="R86">
         <f t="shared" si="27"/>
-        <v>-27.439077946805774</v>
+        <v>-31.371960364415724</v>
       </c>
       <c r="S86">
         <f t="shared" si="28"/>
-        <v>-4.0071485617550096</v>
+        <v>5.6368679823018013</v>
       </c>
       <c r="U86">
         <f t="shared" si="32"/>
-        <v>7.700430048105531</v>
+        <v>2.4117627894992211</v>
       </c>
       <c r="V86">
         <f t="shared" si="32"/>
-        <v>34.947939695277526</v>
+        <v>20.698307566353691</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -13653,7 +13653,7 @@
         <v>-0.01</v>
       </c>
       <c r="D87" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="30"/>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="F87" s="1">
         <f t="shared" si="31"/>
-        <v>-0.255</v>
+        <v>-0.25950000000000001</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -13672,31 +13672,31 @@
       </c>
       <c r="I87">
         <f t="shared" si="19"/>
-        <v>0.255</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" si="20"/>
-        <v>0.20900000000000002</v>
+        <v>0.21350000000000002</v>
       </c>
       <c r="K87">
         <f t="shared" si="21"/>
-        <v>0.21466718426438633</v>
+        <v>0.21905079319646392</v>
       </c>
       <c r="L87">
         <f t="shared" si="22"/>
-        <v>107.60911238822304</v>
+        <v>110.87102679614333</v>
       </c>
       <c r="M87">
         <f t="shared" si="23"/>
-        <v>35.880205068662889</v>
+        <v>34.267697384336529</v>
       </c>
       <c r="N87">
         <f t="shared" si="24"/>
-        <v>13.194671075003038</v>
+        <v>12.925999124705942</v>
       </c>
       <c r="O87">
         <f t="shared" si="25"/>
-        <v>22.685533993659853</v>
+        <v>21.341698259630586</v>
       </c>
       <c r="Q87">
         <f t="shared" si="26"/>
@@ -13704,19 +13704,19 @@
       </c>
       <c r="R87">
         <f t="shared" si="27"/>
-        <v>-28.27004851426533</v>
+        <v>-31.29367891583118</v>
       </c>
       <c r="S87">
         <f t="shared" si="28"/>
-        <v>-0.42949712649815552</v>
+        <v>6.909810291322489</v>
       </c>
       <c r="U87">
         <f t="shared" si="32"/>
-        <v>8.3097056745955555</v>
+        <v>0.78281448584544222</v>
       </c>
       <c r="V87">
         <f t="shared" si="32"/>
-        <v>35.77651435256854</v>
+        <v>12.729423090206877</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>-0.01</v>
       </c>
       <c r="D88" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="30"/>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="F88" s="1">
         <f t="shared" si="31"/>
-        <v>-0.25750000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
@@ -13751,31 +13751,31 @@
       </c>
       <c r="I88">
         <f t="shared" si="19"/>
-        <v>0.25750000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="20"/>
-        <v>0.21150000000000002</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="K88">
         <f t="shared" si="21"/>
-        <v>0.21687842216320186</v>
+        <v>0.21931712199461309</v>
       </c>
       <c r="L88">
         <f t="shared" si="22"/>
-        <v>109.2381867559894</v>
+        <v>111.07353316567237</v>
       </c>
       <c r="M88">
         <f t="shared" si="23"/>
-        <v>35.074975231983615</v>
+        <v>34.167565450279604</v>
       </c>
       <c r="N88">
         <f t="shared" si="24"/>
-        <v>12.786701449186735</v>
+        <v>12.642152327889841</v>
       </c>
       <c r="O88">
         <f t="shared" si="25"/>
-        <v>22.288273782796878</v>
+        <v>21.525413122389764</v>
       </c>
       <c r="Q88">
         <f t="shared" si="26"/>
@@ -13783,19 +13783,19 @@
       </c>
       <c r="R88">
         <f t="shared" si="27"/>
-        <v>-29.16388398870702</v>
+        <v>-30.880320474623026</v>
       </c>
       <c r="S88">
         <f t="shared" si="28"/>
-        <v>3.2359202009761638</v>
+        <v>7.3654496227628456</v>
       </c>
       <c r="U88">
         <f t="shared" si="32"/>
-        <v>8.9383547444169054</v>
+        <v>4.1335844120815324</v>
       </c>
       <c r="V88">
         <f t="shared" si="32"/>
-        <v>36.654173274743194</v>
+        <v>4.5563933144035662</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -13811,7 +13811,7 @@
         <v>-0.01</v>
       </c>
       <c r="D89" s="1">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="30"/>
@@ -13870,11 +13870,11 @@
       </c>
       <c r="U89">
         <f t="shared" si="32"/>
-        <v>9.5896533508364001</v>
+        <v>7.5747115083236594</v>
       </c>
       <c r="V89">
         <f t="shared" si="32"/>
-        <v>37.587269268165961</v>
+        <v>3.7080249497008566</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -13957,8 +13957,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>31</v>
+      <c r="A91" s="1">
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="29"/>
